--- a/biology/Botanique/Isopyrum_thalictroides/Isopyrum_thalictroides.xlsx
+++ b/biology/Botanique/Isopyrum_thalictroides/Isopyrum_thalictroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">l'isopyre faux-pigamon (Isopyrum thalictroides) est une espèce de plante herbacée vivace de la famille des Ranunculaceae.
 C'est une plante qui pousse en touffe aux grandes tiges minces et glabres.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont vertes tirant sur le bleu et formé de 3 folioles eux-mêmes trilobés.
 Les fleurs sont blanches, au bout de pédoncules secondaires (comme des boutons d'or) .
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce considérée comme  vivant dans les lieux humides et ombragés, sous les feuillus ou dans les fissures de rochers jusqu'à 1 200 m d'altitude.
 </t>
@@ -575,7 +591,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce endémique de l'Europe centrale ;  de la Pologne aux Balkans, et de la France à la mer Noire.
 </t>
